--- a/medicine/Enfance/Simon_Brett/Simon_Brett.xlsx
+++ b/medicine/Enfance/Simon_Brett/Simon_Brett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Simon Brett, né le 28 octobre 1945 à Worcester Park (en) dans le Surrey, en banlieue de Londres, est un écrivain britannique, auteur prolifique de roman policier, appartenant au genre du whodunnit, et créateur du sitcom After Henry (en) et de la série télévisée Le Guide du parfait petit emmerdeur (How to Be a Little Sod).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe son enfance et fait ses études dans le Surrey.  Il entre à Oxford en 1963, mais après deux années passées à la faculté d'Histoire, il s'inscrit en Littérature anglaise, et décroche un diplôme avec mention honorifique en 1967.  Pendant ses études universitaires, il s'intéresse au théâtre, joue dans des productions estudiantines de Shakespeare et conçoit, écrit et met en scène des spectacles humoristiques présentés lors de séances de fin de soirée dans les murs de l'institution et au Edinburgh Fringe Festival. 
 À sa sortie d'Oxford, il est Père Noël pour la Saison des fêtes dans un magasin à rayons, puis devient scripteur et producteur dans le milieu de la radio, notamment à la BBC.  
@@ -548,9 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Charles Paris
-Cast, in Order of Disappearance (1975)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Charles Paris</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cast, in Order of Disappearance (1975)
 So Much Blood (1976)
 Star Trap (1977)
 An Amateur Corpse (1978)
@@ -569,17 +591,94 @@
 Dead Room Farce (1998)
 A Decent Interval (2012)
 The Cinderella Killer (2014)
-A Deadly Habit (2018)
-Série Mrs Pargeter
-A Nice Class of Corpse (1986) Publié en français sous le titre Chambres avec vue sur la mort, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 1858, 1986
+A Deadly Habit (2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Simon_Brett</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Mrs Pargeter</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A Nice Class of Corpse (1986) Publié en français sous le titre Chambres avec vue sur la mort, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 1858, 1986
 Mrs., Presumed Dead (1988) Publié en français sous le titre Les Gens de Smithy's, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 1972, 1989
 Mrs Pargeter's Package (1990) Publié en français sous le titre Salades grecques Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 2102, 1992
 Mrs Pargeter's Pound of Flesh (1992) Publié en français sous le titre Mauvaise Graisse, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 2194, 1994
 Mrs Pargeter's Plot (1996)
 Mrs Pargeter's Point of Honour (1999)
 Mrs. Pargeter’s Principle (2015)
-Mrs. Pargeter’s Public Relations (2017)
-Série Fethering
+Mrs. Pargeter’s Public Relations (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Simon_Brett</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Fethering</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Body on the Beach (2000)
 Death on the Downs (2001)
 The Torso in the Town (2002)
@@ -601,8 +700,47 @@
 The Killer in the Choir (2019)
 Guilt at the Garage (2021)
 Death and the Decorator (2022)
-Série Blotto
-Blotto, Twinks, and the Ex-King’s Daughter (2009)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Simon_Brett</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Blotto</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Blotto, Twinks, and the Ex-King’s Daughter (2009)
 Blotto, Twinks, and the Dead Dowager Duchess (2010)
 Blotto, Twinks, and the Rodents of Riviera (2011)
 Blotto, Twinks and the Bootlegger’s Moll (2012)
@@ -611,13 +749,89 @@
  Blotto, Twinks and the Stars of the Silver Screen (2017)
 Blotto, Twinks and the Intimate Review (2018)
 Blotto, Twinks and the Great Road Race (2019)
-Blotto, Twinks and the Maharajah’s Jewel (2021)
-Série Ellen Curtis
-The Clutter Corpse (2020)
+Blotto, Twinks and the Maharajah’s Jewel (2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Simon_Brett</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Ellen Curtis</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Clutter Corpse (2020)
 An Untidy Death (2021)
-Waste of a Life (2022)
-Autres romans
-A Shock of the System (1984) Publié en français sous le titre Touche pas à mon système, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 1929, 1988
+Waste of a Life (2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Simon_Brett</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A Shock of the System (1984) Publié en français sous le titre Touche pas à mon système, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 1929, 1988
 Bad Form (1984)
 Dead Romantic (1985) Publié en français sous le titre D'amour et d'eaux troubles, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 2155, 1993
 People-Spotting (1985)
@@ -626,14 +840,82 @@
 Singled Out (1995) Publié en français sous le titre La Mort en héritage, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 2314, 1997
 Mr. Quigley's Revenge (1995)
 Penultimate Chance Saloon (2006)
-Appeal (2016)
-Recueils de nouvelles
-A Box of Tricks (1985)
+Appeal (2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Simon_Brett</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A Box of Tricks (1985)
 Crime Writers and Other Animals (1997)
 A Crime in Rhyme, and Other Mysterious Fragments (2000)
-Lines of Enquiry, and Other Literary Oddities (2002)
-Pièces de théâtre
-Murder in Play (1994)
+Lines of Enquiry, and Other Literary Oddities (2002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Simon_Brett</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Murder in Play (1994)
 Mr Quigley's Revenge (1995)
 Silhouette (1998)
 The Tale of Little Red Riding Hood (1998)
@@ -643,9 +925,43 @@
 A Small Family Murder (2008)
 Quirks (2009)
 A Healthy Grave (2010)
-Murder with Ghosts (2015)
-Ouvrages de littérature d'enfance et de jeunesse
-The Child-Owner's Handbook (1983)
+Murder with Ghosts (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Simon_Brett</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>The Child-Owner's Handbook (1983)
 The Three Detectives and the Missing Star (1986)
 The Wastepaper Baket Archive (1986)
 The Three Detectives and the Knight in Armor (1987)
@@ -654,41 +970,111 @@
 Not Another Little Sod! (1997)
 Baby Tips for Mums (2004)
 Baby Tips for Grandparents (2005)
-Baby Tips for Dads (2007)
-Autres publications
-On Second Thoughts (2006)
-Seriously Funny, and Other Oxymorons (2017)
-Scénarios
-1988-1992 : After Henry (en), série télévisée de 38 épisodes tous signés pas Simon Brett
+Baby Tips for Dads (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Simon_Brett</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>On Second Thoughts (2006)
+Seriously Funny, and Other Oxymorons (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Simon_Brett</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1988-1992 : After Henry (en), série télévisée de 38 épisodes tous signés pas Simon Brett
 1995 : Le Guide du parfait petit emmerdeur (How to Be a Little Sod), série télévisée de 10 épisodes de 10 minutes tous signés par Simon Brett</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Simon_Brett</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Simon_Brett</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simon_Brett</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 299-300.</t>
         </is>
